--- a/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03062616144188336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04480934721412972</v>
+        <v>0.04480934721412973</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03358803831250943</v>
@@ -697,7 +697,7 @@
         <v>0.02620282097013993</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05597611603217488</v>
+        <v>0.05597611603217487</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006387282243728479</v>
+        <v>0.007618030246129968</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01373218879749256</v>
+        <v>0.01357925020630173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01479882289562006</v>
+        <v>0.01633752020580139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02160200093660182</v>
+        <v>0.0195564233144461</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02028550214180114</v>
+        <v>0.01950489627688048</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02710283863139376</v>
+        <v>0.0249095032336862</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009467901252428077</v>
+        <v>0.009605661238469508</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0418522862113869</v>
+        <v>0.04107430488766239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01557156714098037</v>
+        <v>0.01629680919188303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02369245752590542</v>
+        <v>0.02323721975146559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01669403720041321</v>
+        <v>0.01658233400263818</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03663034895962462</v>
+        <v>0.03607978430808077</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02768177999131289</v>
+        <v>0.02778024227681569</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04439713840429198</v>
+        <v>0.04478612741639522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05092658511093006</v>
+        <v>0.0524564742897277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0858698698382733</v>
+        <v>0.08093637504576362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05346927061088039</v>
+        <v>0.05372426410188293</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06305050132360618</v>
+        <v>0.0646926273010245</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03997940111323164</v>
+        <v>0.0384936680092364</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1154306918745243</v>
+        <v>0.1138090690259697</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03471240519078188</v>
+        <v>0.03776706770593048</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04705727672223814</v>
+        <v>0.04677803160795715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03936601955853249</v>
+        <v>0.0391492051767484</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08400069007687852</v>
+        <v>0.0798977353602521</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.02288270432896862</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03976489728004179</v>
+        <v>0.03976489728004178</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02370803530748456</v>
@@ -833,7 +833,7 @@
         <v>0.02682177493280332</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06180467364749833</v>
+        <v>0.06180467364749834</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01375808686778155</v>
+        <v>0.01376156197226081</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03556989477891448</v>
+        <v>0.03442652838069675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01845201763339084</v>
+        <v>0.01822718429200947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0546042440987204</v>
+        <v>0.05443128915874203</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01441586321625259</v>
+        <v>0.01398279631529569</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02679591664166753</v>
+        <v>0.02513296885987676</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01330391417653672</v>
+        <v>0.0132270006765809</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0243413830167097</v>
+        <v>0.02483172693901716</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01687408856553202</v>
+        <v>0.0166499653641533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0337629488107559</v>
+        <v>0.03469074296090763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01916568756423526</v>
+        <v>0.019137444684987</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04523487241862229</v>
+        <v>0.04511229396249581</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03598758654428057</v>
+        <v>0.0349092511566725</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06907356689987064</v>
+        <v>0.07020126497361193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04757667684931732</v>
+        <v>0.04652454421811456</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255213045943418</v>
+        <v>0.1293367598436258</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03975978275775136</v>
+        <v>0.03955595222355342</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06193434122275678</v>
+        <v>0.05877116613895469</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03709002657074533</v>
+        <v>0.03771464283124766</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05926626224293327</v>
+        <v>0.0626547793841439</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03371438104837865</v>
+        <v>0.03303901917838489</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05960153725039089</v>
+        <v>0.05864383667766813</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03893316970187594</v>
+        <v>0.0377382098457784</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08623396835717945</v>
+        <v>0.08486659075246732</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03862068777882229</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05914836250743695</v>
+        <v>0.05914836250743696</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04437855594305809</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02603395287063971</v>
+        <v>0.02719068974658692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03826087465057636</v>
+        <v>0.03874990290365317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02385854720912239</v>
+        <v>0.02272968614455564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02201595008215546</v>
+        <v>0.02206556533671617</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03141338707305777</v>
+        <v>0.03325770292383537</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05739979268819535</v>
+        <v>0.05529923267618809</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02691659484584808</v>
+        <v>0.02646169615578898</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04397637227558517</v>
+        <v>0.04403466171967889</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0344886219955934</v>
+        <v>0.03354045200058989</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05068882899212108</v>
+        <v>0.05075930760135828</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02823626015007405</v>
+        <v>0.02767351531865256</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0374433019675223</v>
+        <v>0.03647504900392479</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06067934650395779</v>
+        <v>0.0606814438870438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07630049137657062</v>
+        <v>0.07340614918205879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05274135248954372</v>
+        <v>0.05331715306252848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05543585853888162</v>
+        <v>0.05379575113008941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06434942333020305</v>
+        <v>0.06601321525788963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09724741707678806</v>
+        <v>0.09574685137995334</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05511929538395318</v>
+        <v>0.05416275895826662</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07707873576486104</v>
+        <v>0.07595399226349211</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05790957047992411</v>
+        <v>0.05701333351927165</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07855261183921243</v>
+        <v>0.0787974473682231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04828677812937217</v>
+        <v>0.0479508483521541</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06132021851235431</v>
+        <v>0.05885336725830333</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07233471538858333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.101431464959191</v>
+        <v>0.1014314649591909</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.08396457539639159</v>
@@ -1105,7 +1105,7 @@
         <v>0.07046719351346634</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09736874135626526</v>
+        <v>0.09736874135626528</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03618593234251308</v>
+        <v>0.03620250914463854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04671494532646061</v>
+        <v>0.04779642632564448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05336490784213439</v>
+        <v>0.05402050272428433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08123489291623903</v>
+        <v>0.07898858753690145</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0616497354017143</v>
+        <v>0.06207369517887787</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07353514031674056</v>
+        <v>0.07582369551118968</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04989057635564626</v>
+        <v>0.05040114937080857</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07869478345194922</v>
+        <v>0.0778778332965144</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05528636275606761</v>
+        <v>0.05444389779587747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06680344314476423</v>
+        <v>0.06534491442155275</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05638335244376955</v>
+        <v>0.05609072434953984</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08427655431911765</v>
+        <v>0.08340296354380644</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07592839495270129</v>
+        <v>0.07898422411803425</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08559622652617926</v>
+        <v>0.0878458276316412</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09776522692606364</v>
+        <v>0.09843353247526791</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1289334719366889</v>
+        <v>0.1266504289371255</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1130336430101532</v>
+        <v>0.112927680923429</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1269522520991408</v>
+        <v>0.1255802869896404</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08969531980054792</v>
+        <v>0.09164040766184162</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1140693702647297</v>
+        <v>0.1115034988240059</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0873763936659569</v>
+        <v>0.08430819953419126</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09936372617232735</v>
+        <v>0.09977504865861711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08585352029945104</v>
+        <v>0.08583504003054263</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1125976403297353</v>
+        <v>0.1112956051431811</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0644212412381405</v>
+        <v>0.06356328382622545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0840931155536452</v>
+        <v>0.08472618618507749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06263708528226669</v>
+        <v>0.06168346478214429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1308580819684253</v>
+        <v>0.1315881271114172</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05362996769896416</v>
+        <v>0.0546892469800411</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08505453546474585</v>
+        <v>0.08734759596089971</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1002810301189591</v>
+        <v>0.1031349165520673</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09259477171068124</v>
+        <v>0.09285335818720906</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06586284573533407</v>
+        <v>0.06660524853507872</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09382219603124572</v>
+        <v>0.09148825840245572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08862309261134647</v>
+        <v>0.08990550281554115</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.117388389851355</v>
+        <v>0.1154101661232679</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.123733522795386</v>
+        <v>0.1221289548241293</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1436944238980736</v>
+        <v>0.1420618562078392</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1171352441396037</v>
+        <v>0.1175249719656607</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1863611497166973</v>
+        <v>0.1885672251763051</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1102749018538139</v>
+        <v>0.1137442606459229</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1483212919903106</v>
+        <v>0.1508947076400707</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1678414252194915</v>
+        <v>0.1688774083226632</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1319136969280023</v>
+        <v>0.1315434995945702</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1062188034531534</v>
+        <v>0.1078199879979579</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1375771405513577</v>
+        <v>0.1354508828154533</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1334818026407959</v>
+        <v>0.1327778306934285</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1520105899891811</v>
+        <v>0.1517429464512026</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.08466075518946131</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1461969798185755</v>
+        <v>0.1461969798185754</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.08752477076068614</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05579069395639966</v>
+        <v>0.05871166202005578</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09503628966467384</v>
+        <v>0.09973247697388615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05218151012327982</v>
+        <v>0.05261705268846682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1064238154822511</v>
+        <v>0.1094918486172195</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06537566896225031</v>
+        <v>0.0646563736821823</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08286318933728454</v>
+        <v>0.08400433682240779</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06031049154708711</v>
+        <v>0.05707676211773224</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1225803098071382</v>
+        <v>0.1220534205143498</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0657997984188016</v>
+        <v>0.06706636004815622</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09973542805190252</v>
+        <v>0.102128883179416</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06194405116727898</v>
+        <v>0.06295436018334277</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1214541370055489</v>
+        <v>0.1207768780311011</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1219687798921456</v>
+        <v>0.1234524286903778</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1834365923861064</v>
+        <v>0.1861491675760122</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1099827735261255</v>
+        <v>0.1085815462772613</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1642407306024901</v>
+        <v>0.1652953872792522</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1237031150085895</v>
+        <v>0.1232806095241328</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1522923409295573</v>
+        <v>0.1578136353848845</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1218996954234956</v>
+        <v>0.1130660689412321</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1708267197818108</v>
+        <v>0.1728483975915952</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1088031360875132</v>
+        <v>0.1109781862285904</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1524802533612578</v>
+        <v>0.1544095906601845</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1053752575866302</v>
+        <v>0.1073174845750672</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1579481251919577</v>
+        <v>0.1598201957548949</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1413654347638803</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3129694577867806</v>
+        <v>0.3129694577867805</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1223566387669672</v>
@@ -1513,7 +1513,7 @@
         <v>0.1150152579006268</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2935448913057423</v>
+        <v>0.2935448913057422</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08227857472254618</v>
+        <v>0.07854173646181123</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1112030378842422</v>
+        <v>0.1098001905377232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04784407206531719</v>
+        <v>0.04747496538615591</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2246794247146725</v>
+        <v>0.223846199030497</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09499856445941306</v>
+        <v>0.09052284078891359</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1537529359102256</v>
+        <v>0.1561199476347506</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1018160409640819</v>
+        <v>0.1058353533905198</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2818886725568402</v>
+        <v>0.2811209877898674</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09121891086818992</v>
+        <v>0.09749734314890572</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.148910560534999</v>
+        <v>0.150759245569336</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09104918762350683</v>
+        <v>0.09100362747515223</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2685173596404932</v>
+        <v>0.2656268795954921</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1641137743544403</v>
+        <v>0.1615997663411731</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2145217619055952</v>
+        <v>0.2148504935686225</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1116787753201077</v>
+        <v>0.1086058260833783</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3043607951115119</v>
+        <v>0.3089748467842922</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1740011238942298</v>
+        <v>0.169237040250367</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2417393431349074</v>
+        <v>0.240698085765444</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1790698529480539</v>
+        <v>0.1866110854532405</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3488643958873349</v>
+        <v>0.345980415366246</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1516640060839309</v>
+        <v>0.1515371711722473</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2208333467128829</v>
+        <v>0.2158489700782151</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1448256237576288</v>
+        <v>0.1449286719346673</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3191595473947256</v>
+        <v>0.3166938171412115</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0642951189885948</v>
+        <v>0.06438953553770181</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04838153796789946</v>
+        <v>0.04767982581940018</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09716305788333555</v>
+        <v>0.09870439189899308</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08199023821857671</v>
+        <v>0.08119282508642628</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06027443957268275</v>
+        <v>0.06011752654520586</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1062603195657008</v>
+        <v>0.1062736264969031</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07590467218028921</v>
+        <v>0.07535034231610496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05634277062347628</v>
+        <v>0.05582634633503576</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1051969513523481</v>
+        <v>0.1044743221783358</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08293609902617817</v>
+        <v>0.082932106996797</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06483610987414637</v>
+        <v>0.0637013106270657</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1188913068127</v>
+        <v>0.1196506665590197</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1015201075544141</v>
+        <v>0.100827331118257</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07901834150987914</v>
+        <v>0.07857669178624521</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1235802588909297</v>
+        <v>0.1238485385859447</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08938330677493805</v>
+        <v>0.08950562897190951</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06817032633125863</v>
+        <v>0.06836301283125795</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1184713604200549</v>
+        <v>0.1182552928918669</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3156</v>
+        <v>3764</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6236</v>
+        <v>6167</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6208</v>
+        <v>6853</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8809</v>
+        <v>7975</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9483</v>
+        <v>9118</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11660</v>
+        <v>10717</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3747</v>
+        <v>3801</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15172</v>
+        <v>14890</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14973</v>
+        <v>15670</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>20953</v>
+        <v>20550</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13609</v>
+        <v>13518</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>28217</v>
+        <v>27792</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13677</v>
+        <v>13725</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20163</v>
+        <v>20339</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21362</v>
+        <v>22004</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35017</v>
+        <v>33005</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24996</v>
+        <v>25116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27126</v>
+        <v>27833</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15822</v>
+        <v>15234</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41845</v>
+        <v>41257</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33378</v>
+        <v>36315</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>41616</v>
+        <v>41369</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32092</v>
+        <v>31915</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>64706</v>
+        <v>61546</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10119</v>
+        <v>10121</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24440</v>
+        <v>23654</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10896</v>
+        <v>10763</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>26040</v>
+        <v>25958</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9017</v>
+        <v>8746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16352</v>
+        <v>15338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7497</v>
+        <v>7454</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12213</v>
+        <v>12459</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22965</v>
+        <v>22660</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43802</v>
+        <v>45006</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22118</v>
+        <v>22085</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44268</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26468</v>
+        <v>25675</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47460</v>
+        <v>48234</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28094</v>
+        <v>27473</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>59860</v>
+        <v>61679</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24870</v>
+        <v>24742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37796</v>
+        <v>35865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20902</v>
+        <v>21254</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29736</v>
+        <v>31436</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45885</v>
+        <v>44966</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>77324</v>
+        <v>76081</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>44930</v>
+        <v>43551</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84391</v>
+        <v>83052</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16627</v>
+        <v>17366</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26089</v>
+        <v>26422</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15964</v>
+        <v>15208</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13668</v>
+        <v>13699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21667</v>
+        <v>22939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40803</v>
+        <v>39309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17802</v>
+        <v>17501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27406</v>
+        <v>27442</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45815</v>
+        <v>44556</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>70595</v>
+        <v>70693</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37568</v>
+        <v>36819</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>46581</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38754</v>
+        <v>38755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>52026</v>
+        <v>50053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35289</v>
+        <v>35674</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34417</v>
+        <v>33398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44385</v>
+        <v>45532</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>69128</v>
+        <v>68062</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36455</v>
+        <v>35822</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48035</v>
+        <v>47334</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>76928</v>
+        <v>75737</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>109401</v>
+        <v>109742</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>64245</v>
+        <v>63798</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>76284</v>
+        <v>73215</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18786</v>
+        <v>18794</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28712</v>
+        <v>29376</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>34476</v>
+        <v>34900</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>56915</v>
+        <v>55341</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31789</v>
+        <v>32008</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>45312</v>
+        <v>46722</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32383</v>
+        <v>32714</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>57989</v>
+        <v>57387</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>57210</v>
+        <v>56338</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>82223</v>
+        <v>80428</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>73023</v>
+        <v>72644</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>121148</v>
+        <v>119892</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39418</v>
+        <v>41004</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52609</v>
+        <v>53992</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63161</v>
+        <v>63593</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90333</v>
+        <v>88733</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>58285</v>
+        <v>58230</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>78228</v>
+        <v>77382</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58219</v>
+        <v>59482</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>84056</v>
+        <v>82165</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>90416</v>
+        <v>87241</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>122298</v>
+        <v>122805</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>111191</v>
+        <v>111167</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>161860</v>
+        <v>159988</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24912</v>
+        <v>24581</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36112</v>
+        <v>36384</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>29935</v>
+        <v>29480</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>79738</v>
+        <v>80183</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21666</v>
+        <v>22094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>38087</v>
+        <v>39114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>49825</v>
+        <v>51242</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>56377</v>
+        <v>56534</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>52077</v>
+        <v>52665</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>82304</v>
+        <v>80256</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>86387</v>
+        <v>87637</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>143003</v>
+        <v>140593</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47849</v>
+        <v>47228</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>61707</v>
+        <v>61005</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>55981</v>
+        <v>56167</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>113558</v>
+        <v>114903</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44550</v>
+        <v>45951</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>66418</v>
+        <v>67571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>83392</v>
+        <v>83907</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>80316</v>
+        <v>80091</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>83987</v>
+        <v>85253</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>120687</v>
+        <v>118821</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>130114</v>
+        <v>129427</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>185180</v>
+        <v>184854</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16323</v>
+        <v>17178</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>29441</v>
+        <v>30896</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>17446</v>
+        <v>17591</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>43323</v>
+        <v>44572</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22420</v>
+        <v>22173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>29333</v>
+        <v>29737</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>22783</v>
+        <v>21561</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>53833</v>
+        <v>53602</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>41817</v>
+        <v>42622</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>66203</v>
+        <v>67791</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>44110</v>
+        <v>44829</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>102780</v>
+        <v>102207</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35686</v>
+        <v>36120</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>56826</v>
+        <v>57666</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>36771</v>
+        <v>36302</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>66859</v>
+        <v>67288</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>42422</v>
+        <v>42277</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>53911</v>
+        <v>55865</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46049</v>
+        <v>42712</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>75021</v>
+        <v>75909</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>69146</v>
+        <v>70529</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>101214</v>
+        <v>102494</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>75037</v>
+        <v>76420</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>133663</v>
+        <v>135247</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17269</v>
+        <v>16485</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>27784</v>
+        <v>27434</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12296</v>
+        <v>12201</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69695</v>
+        <v>69437</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>31721</v>
+        <v>30226</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>59807</v>
+        <v>60727</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>40744</v>
+        <v>42352</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>130968</v>
+        <v>130611</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>49604</v>
+        <v>53018</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>95129</v>
+        <v>96310</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>59835</v>
+        <v>59805</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>208049</v>
+        <v>205810</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>34445</v>
+        <v>33917</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>53598</v>
+        <v>53681</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28701</v>
+        <v>27911</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>94412</v>
+        <v>95843</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>58100</v>
+        <v>56510</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>94032</v>
+        <v>93627</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>71658</v>
+        <v>74676</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>162086</v>
+        <v>160746</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>82474</v>
+        <v>82405</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>141075</v>
+        <v>137891</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>95175</v>
+        <v>95242</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>247287</v>
+        <v>245377</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>220325</v>
+        <v>220649</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>164224</v>
+        <v>161842</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>343254</v>
+        <v>348699</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>291747</v>
+        <v>288909</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>213645</v>
+        <v>213089</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>397090</v>
+        <v>397140</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>530201</v>
+        <v>526329</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>390956</v>
+        <v>387373</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>764752</v>
+        <v>759499</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>284204</v>
+        <v>284190</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>220076</v>
+        <v>216225</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>420015</v>
+        <v>422697</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>361240</v>
+        <v>358775</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>280084</v>
+        <v>278518</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>461814</v>
+        <v>462816</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>624350</v>
+        <v>625205</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>473027</v>
+        <v>474364</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>861253</v>
+        <v>859682</v>
       </c>
     </row>
     <row r="36">
